--- a/medicine/Pharmacie/Sémaglutide/Sémaglutide.xlsx
+++ b/medicine/Pharmacie/Sémaglutide/Sémaglutide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9maglutide</t>
+          <t>Sémaglutide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sémaglutide est un analogue du GLP-1 utilisé comme médicament antidiabétique en une injection sous-cutanée hebdomadaire. Il est commercialisé sous le nom Ozempic sous forme de seringues préremplies contenant quatre doses, chacune de 0,25 mg, ou 0,50 mg, ou 1 mg. Il est aussi commercialisé dans différents pays sous le nom de Wegovy et Rybelsus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9maglutide</t>
+          <t>Sémaglutide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisé seul, il permet une diminution moyenne de l'hémoglobine glyquée de 1,5 % avec une baisse de poids[1]. Associé au traitement conventionnel du diabète de type 2, il s'avère être supérieur à la sitagliptine[2] et à l'insuline[3] pour l'équilibration du diabète.
-Il a été aussi testé dans l'obésité, dans des doses plus importantes, en l'absence de diabète. Il permet alors une baisse du poids qui peut atteindre 15 % de la masse corporelle[4]. Cet effet semble être dû à une diminution de l'appétit[5]. Cela entraîne une baisse de la mortalité cardiovasculaire ainsi que du nombre d'infarctus du myocarde ou d'accidents vasculaires cérébraux[6]. Commercialisé dans cette indication sous le nom de Wegovy[7], le fabricant Novo Nordisk indique en décembre 2022 souffrir de problèmes d'approvisionnement en raison d'un détournement d'usage promu sur les réseaux sociaux, par des personnes cherchant à maigrir[8],[9]. 
-Il est en cours de test dans la stéatose hépatique non alcoolique, permettant dans certains cas une régression des lésions mais sans jouer sur la fibrose[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisé seul, il permet une diminution moyenne de l'hémoglobine glyquée de 1,5 % avec une baisse de poids. Associé au traitement conventionnel du diabète de type 2, il s'avère être supérieur à la sitagliptine et à l'insuline pour l'équilibration du diabète.
+Il a été aussi testé dans l'obésité, dans des doses plus importantes, en l'absence de diabète. Il permet alors une baisse du poids qui peut atteindre 15 % de la masse corporelle. Cet effet semble être dû à une diminution de l'appétit. Cela entraîne une baisse de la mortalité cardiovasculaire ainsi que du nombre d'infarctus du myocarde ou d'accidents vasculaires cérébraux. Commercialisé dans cette indication sous le nom de Wegovy, le fabricant Novo Nordisk indique en décembre 2022 souffrir de problèmes d'approvisionnement en raison d'un détournement d'usage promu sur les réseaux sociaux, par des personnes cherchant à maigrir,. 
+Il est en cours de test dans la stéatose hépatique non alcoolique, permettant dans certains cas une régression des lésions mais sans jouer sur la fibrose.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9maglutide</t>
+          <t>Sémaglutide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet secondaire le plus fréquent est la survenue de nausées[4]. Des troubles digestifs potentiellement sévères et prolongés comme la cholélithiase, et la pancréatite aiguë sont aussi rapportés[11].
-Les autres risques d'une prise de sémaglutide sont importants : pancréatites aiguës, qui peuvent survenir même à doses faibles, des troubles biliaires, de rares cas de constipation sévère qui peuvent conduire à l’obstruction intestinale, ainsi qu'un risque accru de cancer de la thyroïde après plusieurs années de traitement[7]. Ces risques sont d'autant plus importants si le médicament est donné pour de l'obésité et pour une longue durée[12].
-En France, une surveillance active de l'utilisation du médicament a été mise en place par l'ANSM et la Cnam afin notamment d'éviter que son mésusage ne pénalise les personnes diabétiques pour qui ce traitement est essentiel[13]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet secondaire le plus fréquent est la survenue de nausées. Des troubles digestifs potentiellement sévères et prolongés comme la cholélithiase, et la pancréatite aiguë sont aussi rapportés.
+Les autres risques d'une prise de sémaglutide sont importants : pancréatites aiguës, qui peuvent survenir même à doses faibles, des troubles biliaires, de rares cas de constipation sévère qui peuvent conduire à l’obstruction intestinale, ainsi qu'un risque accru de cancer de la thyroïde après plusieurs années de traitement. Ces risques sont d'autant plus importants si le médicament est donné pour de l'obésité et pour une longue durée.
+En France, une surveillance active de l'utilisation du médicament a été mise en place par l'ANSM et la Cnam afin notamment d'éviter que son mésusage ne pénalise les personnes diabétiques pour qui ce traitement est essentiel. 
 </t>
         </is>
       </c>
